--- a/similarities/split_global/harmonic_similarity_timestamps_91.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_91.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,690 +484,746 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_128</t>
+          <t>schubert-winterreise_21</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>schubert-winterreise_85</t>
+          <t>schubert-winterreise_4</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['A#:maj', 'D#:min', 'A#:maj', 'D#:min', 'A#:maj']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D:min/A', 'A:7', 'D:min']]</t>
+          <t>['A:maj', 'D:min', 'A:maj', 'D:min', 'A:maj']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:00:46.520000', '0:00:48.940000')]</t>
+          <t>('0:00:02.020000', '0:00:08.580000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:01:49.520000', '0:01:54.200000')]</t>
+          <t>('0:00:06.880000', '0:00:15.960000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-128#t=46.52']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-21#t=2.02</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-85#t=109.52']</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-4#t=6.88</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_117</t>
+          <t>schubert-winterreise_179</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>jaah_54</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D#:maj/A#', 'A#:7', 'D#:maj/A#']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']]</t>
+          <t>['C:maj/G', 'G:7', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:00:07.160000', '0:00:20.240000')]</t>
+          <t>('0:01:37.120000', '0:01:44.100000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:22.370000', '0:00:47.630000')]</t>
+          <t>('0:01:32.180000', '0:01:37.740000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-117#t=7.16']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-179#t=97.12</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-54#t=22.37']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=92.18</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
-      <c r="J3" t="inlineStr"/>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_134</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_52</t>
+          <t>jaah_39</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['G:min/D', 'D:7', 'G:min']]</t>
+          <t>['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:7/E', 'D:min']]</t>
+          <t>['Ab', 'Db', 'Ab', 'Db']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:00:40.820000', '0:00:43.620000')]</t>
+          <t>('0:02:22.140000', '0:02:27.860000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:00:01.440000', '0:00:06.660000')]</t>
+          <t>('0:02:03.030000', '0:02:09.590000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=1.44']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-39#t=123.03</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_166</t>
+          <t>isophonics_50</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_61</t>
+          <t>schubert-winterreise_163</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C', 'G', 'C']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['F#:min', 'C#', 'F#:min']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:00:08.180000', '0:00:13.260000')]</t>
+          <t>('0:00:58.300068', '0:01:03.443287')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:03.744784', '0:00:06.774988')]</t>
+          <t>('0:01:54.520000', '0:01:55.660000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=8.18']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-50#t=58.300068</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-61#t=3.744784']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-163#t=114.52</t>
         </is>
       </c>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>schubert-winterreise_110</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_157</t>
+          <t>schubert-winterreise_197</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['C:maj', 'G:maj', 'C:maj', 'G:maj', 'C:maj']]</t>
+          <t>['B:min', 'F#:7/A#', 'B:min']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['E', 'B', 'E', 'B', 'E']]</t>
+          <t>['F#:min', 'C#:7', 'F#:min']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:10.460000', '0:00:13.880000')]</t>
+          <t>('0:00:37.360000', '0:00:44.660000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:29.257527', '0:01:50.178707')]</t>
+          <t>('0:00:02.860000', '0:00:07.500000')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=10.46']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-110#t=37.36</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=89.257527']</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-197#t=2.86</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>spotify:track:1yerCi2iQCVkdHG6rdRn7R</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>isophonics_174</t>
+          <t>schubert-winterreise_61</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_291</t>
+          <t>schubert-winterreise_155</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'A', 'D', 'G', 'D', 'G', 'D', 'G']]</t>
+          <t>['C:maj', 'G:7', 'C:maj', 'G:7', 'C:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:00:43.934000', '0:00:53.870000')]</t>
+          <t>('0:01:10.980000', '0:01:27.200000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:32.421428', '0:00:48.176167')]</t>
+          <t>('0:00:01.460000', '0:00:11.260000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-174#t=43.934']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-61#t=70.98</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-291#t=32.421428']</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>spotify:track:06ypiqmILMdVeaiErMFA91</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-155#t=1.46</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>schubert-winterreise_186</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_199</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['A#:maj', 'F:maj', 'A#:maj', 'F:maj']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj']]</t>
+          <t>['D', 'A', 'D', 'A']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:02:01.080000', '0:02:02.340000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:03.840000', '0:01:05.240000')]</t>
+          <t>('0:01:42.174263', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-186#t=121.08</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-199#t=63.84']</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=102.174263</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_287</t>
+          <t>schubert-winterreise_50</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_183</t>
+          <t>schubert-winterreise_187</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
+          <t>['C:7', 'F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['A#:7/F', 'D#/G', 'A#:7', 'D#']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
+          <t>('0:01:32.040000', '0:01:44.400000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:02:11.140000', '0:02:13.900000'), ('0:02:08.540000', '0:02:12.840000')]</t>
+          <t>('0:00:40.480000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=21.722199', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-287#t=65.81034']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-50#t=92.04</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=131.14', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-183#t=128.54']</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=40.48</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_83</t>
+          <t>jaah_75</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_78</t>
+          <t>jaah_4</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:maj/A', 'G:maj/B'], ['D:maj/A', 'G:maj', 'D:maj/A']]</t>
+          <t>['Eb:maj6', 'F:min7', 'Bb:7']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D'], ['A', 'D', 'A']]</t>
+          <t>['F:min7', 'Bb:min7', 'Eb:7']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:02:14.840000', '0:02:17.480000'), ('0:02:12.300000', '0:02:16.560000')]</t>
+          <t>('0:00:18.960000', '0:00:22.730000')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:37.738798', '0:00:41.709410'), ('0:00:39.724104', '0:00:47.769818')]</t>
+          <t>('0:00:22.570000', '0:00:28.190000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=134.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-83#t=132.3']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-75#t=18.96</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=37.738798', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-78#t=39.724104']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-4#t=22.57</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
+          <t>isophonics_225</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>jaah_31</t>
+          <t>schubert-winterreise_52</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['F#:7/A#', 'B:7/A', 'E:maj/G#'], ['B:7', 'E:maj', 'B:7']]</t>
+          <t>['E:7', 'A:min', 'A:min/b7']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['D:7', 'G:7', 'C'], ['G:7', 'C', 'G:7']]</t>
+          <t>['A:7', 'D:min', 'D:min/A']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:49.280000', '0:00:56.880000'), ('0:00:02.580000', '0:00:08.960000')]</t>
+          <t>('0:00:40.049000', '0:00:48.539000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:00:58.670000', '0:01:04.130000'), ('0:00:06.040000', '0:00:15.040000')]</t>
+          <t>('0:00:25.040000', '0:00:42.400000')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=49.28', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-172#t=2.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-225#t=40.049</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=58.67', 'https://soundcloud.com/jacopo-de-berardinis/jaah-31#t=6.04']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-52#t=25.04</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:5UYEp9kllA47IhttiiMuJ0</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>isophonics_265</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_126</t>
+          <t>schubert-winterreise_14</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['A', 'D', 'A', 'E']]</t>
+          <t>['A', 'D', 'A']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['D:maj/F#', 'G:maj', 'D:maj', 'A:maj']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:00:01.829138', '0:00:17.282018')]</t>
+          <t>('0:01:45.425056', '0:01:55.003287')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:00:58.080000', '0:01:09.440000')]</t>
+          <t>('0:01:23.340000', '0:01:27.640000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-108#t=1.829138']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-265#t=105.425056</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-126#t=58.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=83.34</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
+          <t>jaah_16</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_143</t>
+          <t>schubert-winterreise_59</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['F:7', 'Bb', 'Bb:min', 'F']]</t>
+          <t>['B:7', 'E:7', 'A']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['B:7', 'E:maj/B', 'E:min/B', 'B:maj']]</t>
+          <t>['F#:7/A#', 'B:7/A', 'E:maj/G#']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:00:19.513843', '0:00:26.514661')]</t>
+          <t>('0:00:42.960000', '0:00:45.780000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:04.140000', '0:00:13.420000')]</t>
+          <t>('0:00:55.620000', '0:01:03.080000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-180#t=19.513843']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-16#t=42.96</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-143#t=4.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=55.62</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>isophonics_42</t>
+          <t>schubert-winterreise_132</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_248</t>
+          <t>jaah_21</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['C:min', 'Bb/3', 'Eb'], ['Ab', 'C:min', 'Bb/3']]</t>
+          <t>['F:maj', 'F:7/D#', 'A#:maj/D']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['B:min', 'A', 'D'], ['G', 'B:min', 'A']]</t>
+          <t>['Ab/b5', 'Ab:7', 'Db/3']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:00.290000', '0:00:03.065000'), ('0:00:04.314000', '0:00:07.119000')]</t>
+          <t>('0:00:56.440000', '0:01:05.460000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:40.321000', '0:00:44.536000'), ('0:00:50.686000', '0:00:54.233000')]</t>
+          <t>('0:00:05.320000', '0:00:06.840000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=0.29', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-42#t=4.314']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-132#t=56.44</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=40.321', 'https://soundcloud.com/jacopo-de-berardinis/isophonics-248#t=50.686']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-21#t=5.32</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>isophonics_212</t>
+          <t>isophonics_96</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>isophonics_280</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D', 'G']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj', 'A:maj', 'D:maj']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab', 'Db']]</t>
+          <t>['E/3', 'A', 'E/5', 'B', 'E']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:00:46.932280', '0:00:55.860352')]</t>
+          <t>('0:00:38.543000', '0:01:03.135000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:03.070000')]</t>
+          <t>('0:00:28.395907', '0:00:41.761111')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-212#t=46.93228']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-96#t=38.543</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-280#t=28.395907</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_92</t>
+          <t>schubert-winterreise_6</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_169</t>
+          <t>schubert-winterreise_25</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:7/C#', 'B:min/D']]</t>
+          <t>['F#:7/B', 'B:min', 'E:min/B']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['G:min', 'D:7', 'G:min']]</t>
+          <t>['C:7', 'F:min', 'A#:min/C#']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:00.360000', '0:00:02.440000')]</t>
+          <t>('0:00:24.760000', '0:00:32.420000')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:19.440000', '0:00:28.300000')]</t>
+          <t>('0:00:22.100000', '0:00:29.560000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-6#t=24.76</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-169#t=19.44']</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
-        </is>
-      </c>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-25#t=22.1</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
